--- a/sample-data/TN_Billing-Statement_created-1234.xlsx
+++ b/sample-data/TN_Billing-Statement_created-1234.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Code\GitHub\dashboard2\sample-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E15A20AB-4389-4AC9-A9FC-DE64CA70109A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{570CF22C-3B0E-4D46-921E-5BC0582B11C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2190" yWindow="4095" windowWidth="25785" windowHeight="11295" xr2:uid="{E0A79E2C-7667-4B68-BFAD-B6FB87925F08}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E0A79E2C-7667-4B68-BFAD-B6FB87925F08}"/>
   </bookViews>
   <sheets>
     <sheet name="Billing Transactions" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="23">
   <si>
     <t>Date</t>
   </si>
@@ -77,20 +77,50 @@
     <t>Appointment</t>
   </si>
   <si>
-    <t>Provider Test</t>
-  </si>
-  <si>
     <t>Patient2</t>
+  </si>
+  <si>
+    <t>John Doe</t>
+  </si>
+  <si>
+    <t>Patient3</t>
+  </si>
+  <si>
+    <t>Patient4</t>
+  </si>
+  <si>
+    <t>Patient5</t>
+  </si>
+  <si>
+    <t>Patient6</t>
+  </si>
+  <si>
+    <t>Patient7</t>
+  </si>
+  <si>
+    <t>Patient8</t>
+  </si>
+  <si>
+    <t>Patient9</t>
+  </si>
+  <si>
+    <t>Bob Doe</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -454,7 +484,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01143ED9-C1D4-43CF-A629-9CF2C56DE123}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -462,6 +492,7 @@
   <cols>
     <col min="2" max="3" width="15.28515625" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
     <col min="6" max="6" width="15.140625" customWidth="1"/>
     <col min="9" max="9" width="27.28515625" customWidth="1"/>
     <col min="10" max="10" width="24.85546875" customWidth="1"/>
@@ -513,7 +544,7 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2">
         <v>75</v>
@@ -542,10 +573,10 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
         <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
       </c>
       <c r="F3">
         <v>75</v>
@@ -563,7 +594,252 @@
         <v>12</v>
       </c>
     </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>45294</v>
+      </c>
+      <c r="B4" s="2">
+        <v>90833</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4">
+        <v>75</v>
+      </c>
+      <c r="G4">
+        <v>50</v>
+      </c>
+      <c r="H4">
+        <v>150</v>
+      </c>
+      <c r="I4">
+        <v>100</v>
+      </c>
+      <c r="J4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>45295</v>
+      </c>
+      <c r="B5" s="2">
+        <v>90834</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5">
+        <v>75</v>
+      </c>
+      <c r="G5">
+        <v>50</v>
+      </c>
+      <c r="H5">
+        <v>150</v>
+      </c>
+      <c r="I5">
+        <v>100</v>
+      </c>
+      <c r="J5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>45296</v>
+      </c>
+      <c r="B6" s="2">
+        <v>90835</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6">
+        <v>75</v>
+      </c>
+      <c r="G6">
+        <v>50</v>
+      </c>
+      <c r="H6">
+        <v>150</v>
+      </c>
+      <c r="I6">
+        <v>100</v>
+      </c>
+      <c r="J6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>45297</v>
+      </c>
+      <c r="B7" s="2">
+        <v>90836</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7">
+        <v>75</v>
+      </c>
+      <c r="G7">
+        <v>50</v>
+      </c>
+      <c r="H7">
+        <v>150</v>
+      </c>
+      <c r="I7">
+        <v>100</v>
+      </c>
+      <c r="J7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>45298</v>
+      </c>
+      <c r="B8" s="2">
+        <v>90837</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8">
+        <v>75</v>
+      </c>
+      <c r="G8">
+        <v>50</v>
+      </c>
+      <c r="H8">
+        <v>150</v>
+      </c>
+      <c r="I8">
+        <v>100</v>
+      </c>
+      <c r="J8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>45299</v>
+      </c>
+      <c r="B9" s="2">
+        <v>90838</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9">
+        <v>75</v>
+      </c>
+      <c r="G9">
+        <v>50</v>
+      </c>
+      <c r="H9">
+        <v>150</v>
+      </c>
+      <c r="I9">
+        <v>100</v>
+      </c>
+      <c r="J9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>45300</v>
+      </c>
+      <c r="B10" s="2">
+        <v>90839</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10">
+        <v>75</v>
+      </c>
+      <c r="G10">
+        <v>50</v>
+      </c>
+      <c r="H10">
+        <v>150</v>
+      </c>
+      <c r="I10">
+        <v>100</v>
+      </c>
+      <c r="J10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="2"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>